--- a/xlsx/aggregated_revenues2017.xlsx
+++ b/xlsx/aggregated_revenues2017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Nettoumsätze</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,43 +152,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>178.50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>870.43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>354.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>939.61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>766.90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120.32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500.00</t>
+    <t>1669.75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,7 +898,7 @@
         <v>33</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>33</v>
@@ -975,13 +939,13 @@
         <v>33</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>33</v>
@@ -1016,7 +980,7 @@
         <v>33</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>33</v>
@@ -1057,7 +1021,7 @@
         <v>33</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>33</v>
@@ -1098,7 +1062,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>33</v>
@@ -1139,7 +1103,7 @@
         <v>33</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>33</v>
@@ -1180,7 +1144,7 @@
         <v>33</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>33</v>
@@ -1221,13 +1185,13 @@
         <v>33</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>33</v>
@@ -1268,7 +1232,7 @@
         <v>33</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>33</v>
